--- a/data/result/fmdr_result_normal_points.xlsx
+++ b/data/result/fmdr_result_normal_points.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.171468714521335</v>
+        <v>1.046255363903109</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8769146751719149</v>
+        <v>0.7156259650684937</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5967137908831887</v>
+        <v>0.6977668506110654</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8816180940510602</v>
+        <v>0.7137695254065115</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.54315347188687</v>
+        <v>1.781037691727678</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.225929321449798</v>
+        <v>1.110979557818975</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9897466263763595</v>
+        <v>0.8866160195476822</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.021560570598969</v>
+        <v>0.7933020899761561</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8114404365379776</v>
+        <v>0.6635413190097486</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7609158436866267</v>
+        <v>0.6686150478823808</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8034287117922885</v>
+        <v>0.7164161685883792</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.281446688806706</v>
+        <v>1.176847083874245</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9575461997578796</v>
+        <v>0.8131515926777571</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.074791067671529</v>
+        <v>0.7114011638745276</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.122142858846886</v>
+        <v>0.7394286091952482</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7486496094272639</v>
+        <v>0.8800884374738071</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8701879444212466</v>
+        <v>0.7795294145250065</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6013522570594534</v>
+        <v>0.6530980410721121</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7390474876744803</v>
+        <v>0.6154112571801958</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4182274149100996</v>
+        <v>0.3942499138852691</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.252037791530998</v>
+        <v>1.200846865689083</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.231885303045587</v>
+        <v>0.9787345102628119</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.295099511469851</v>
+        <v>1.138438746759449</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.038408259210879</v>
+        <v>0.7478000941715848</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.230513833945954</v>
+        <v>0.890821026985621</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7746719937425909</v>
+        <v>0.6338121766686491</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.084550106085509</v>
+        <v>1.004317692710951</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8718431180335655</v>
+        <v>0.7299721777294338</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.085642474112333</v>
+        <v>0.7691119319655898</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9190535546833867</v>
+        <v>0.6706203653631346</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.049507813573249</v>
+        <v>0.7958045080540856</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.036853320816826</v>
+        <v>0.7544288897574616</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8593334392534219</v>
+        <v>0.6534144970215944</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.125045204035839</v>
+        <v>0.7553571119789472</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.6438579516783007</v>
+        <v>0.5356713504072657</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5101611924241427</v>
+        <v>0.387295376077209</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.340480119859245</v>
+        <v>1.217998715210212</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.104910925174049</v>
+        <v>0.8224216215000441</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9692087794553037</v>
+        <v>0.9132197611330457</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.8601803506326695</v>
+        <v>0.6851887118766262</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.843118721921563</v>
+        <v>0.7363405199824863</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9595141680145434</v>
+        <v>0.6855720339069487</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.243397263788537</v>
+        <v>0.8503376971350906</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9432524993418065</v>
+        <v>0.673857441626149</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.121932900334899</v>
+        <v>0.7837645409102576</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.7197732202505087</v>
+        <v>0.6278451008908957</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5865111402246563</v>
+        <v>0.4369200892405042</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.394736649061493</v>
+        <v>0.8942779952482918</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.20481244473313</v>
+        <v>0.7541300496028441</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8500724850765794</v>
+        <v>0.6971137112154515</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.4984106377861692</v>
+        <v>0.4272688043463146</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.7940276042731991</v>
+        <v>0.7157315372892344</v>
       </c>
     </row>
   </sheetData>
